--- a/数据整理/stocks/港股/02600-中国铝业.xlsx
+++ b/数据整理/stocks/港股/02600-中国铝业.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>82.77</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2.79</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>10</v>
       </c>
     </row>
@@ -530,15 +550,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>82.77</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>2.79</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>10</v>
       </c>
     </row>
@@ -553,7 +583,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,15 +604,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -604,15 +644,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>92.49</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2.22</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>8</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/02600-中国铝业.xlsx
+++ b/数据整理/stocks/港股/02600-中国铝业.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -669,4 +670,174 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161124</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达香港恒生综合小型股指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>501023</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华港股通中证香港中小企业投资主题指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006263</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达香港恒生综合小型股指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/02600-中国铝业.xlsx
+++ b/数据整理/stocks/港股/02600-中国铝业.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -840,4 +841,250 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002666</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源沪港深创新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>42.21</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.0771</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002667</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源沪港深创新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16.75</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2211</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005701</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>上投摩根香港精选港股通混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>74.18</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>161124</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达香港恒生综合小型股指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>95.11</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006263</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达香港恒生综合小型股指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>95.11</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/02600-中国铝业.xlsx
+++ b/数据整理/stocks/港股/02600-中国铝业.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1087,4 +1088,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.33</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/02600-中国铝业.xlsx
+++ b/数据整理/stocks/港股/02600-中国铝业.xlsx
@@ -1112,12 +1112,12 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>持有市值(亿元)</t>
         </is>
       </c>
     </row>

--- a/数据整理/stocks/港股/02600-中国铝业.xlsx
+++ b/数据整理/stocks/港股/02600-中国铝业.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1096,7 +1097,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1107,17 +1108,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1127,14 +1148,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>011157</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>弘毅远方港股通智选领航混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.35</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1708</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.33</v>
       </c>
     </row>
     <row r="3">
@@ -1143,14 +1186,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.01</v>
+          <t>040018</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安香港精选股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.46</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1357</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1159,14 +1224,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
+          <t>011158</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>弘毅远方港股通智选领航混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.35</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0365</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -1175,13 +1262,189 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>161124</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达香港恒生综合小型股指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006263</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达香港恒生综合小型股指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.33</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>2</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.03</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/02600-中国铝业.xlsx
+++ b/数据整理/stocks/港股/02600-中国铝业.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>0.35</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>4.33</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>0.01</v>
+        <v>4.33</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>2</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -571,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -632,26 +649,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.65</t>
+          <t>2.55</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.35</t>
+          <t>88.63</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.68</t>
+          <t>4.56</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1708</t>
+          <t>0.1163</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -660,36 +677,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>040018</t>
+          <t>004317</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华安香港精选股票(QDII)</t>
+          <t>前海开源沪港深裕鑫灵活配置混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5.47</t>
+          <t>1.79</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>88.46</t>
+          <t>70.17</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.48</t>
+          <t>2.91</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1357</t>
+          <t>0.0521</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -698,32 +715,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>011158</t>
+          <t>004316</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>弘毅远方港股通智选领航混合C</t>
+          <t>前海开源沪港深裕鑫灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>1.77</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>90.35</t>
+          <t>70.17</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.68</t>
+          <t>2.91</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0365</t>
+          <t>0.0515</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -736,36 +753,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>161124</t>
+          <t>011158</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>易方达香港恒生综合小型股指数（QDII-LOF）A</t>
+          <t>弘毅远方港股通智选领航混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>92.62</t>
+          <t>88.63</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>4.56</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0067</t>
+          <t>0.0342</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -774,36 +791,74 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>161124</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达香港恒生综合小型股指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>006263</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>易方达香港恒生综合小型股指数（QDII-LOF）C</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>92.62</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.40</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0014</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -838,7 +893,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -868,36 +923,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002666</t>
+          <t>011157</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>前海开源沪港深创新成长灵活配置混合A</t>
+          <t>弘毅远方港股通智选领航混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>42.21</t>
+          <t>3.65</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.22</t>
+          <t>90.35</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.29</t>
+          <t>4.68</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.0771</t>
+          <t>0.1708</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -906,36 +961,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>002667</t>
+          <t>040018</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>前海开源沪港深创新成长灵活配置混合C</t>
+          <t>华安香港精选股票(QDII)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>16.75</t>
+          <t>5.47</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.22</t>
+          <t>88.46</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7.29</t>
+          <t>2.48</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.2211</t>
+          <t>0.1357</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -944,36 +999,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005701</t>
+          <t>011158</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>上投摩根香港精选港股通混合</t>
+          <t>弘毅远方港股通智选领航混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.51</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>74.18</t>
+          <t>90.35</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.03</t>
+          <t>4.68</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0206</t>
+          <t>0.0365</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -992,26 +1047,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>95.11</t>
+          <t>92.62</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0081</t>
+          <t>0.0067</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -1030,26 +1085,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>95.11</t>
+          <t>92.62</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0018</t>
+          <t>0.0014</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1058,6 +1113,252 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002666</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源沪港深创新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>42.21</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.0771</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002667</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源沪港深创新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16.75</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2211</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005701</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>上投摩根香港精选港股通混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>74.18</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>161124</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达香港恒生综合小型股指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>95.11</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006263</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达香港恒生综合小型股指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>95.11</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1227,7 +1528,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1321,7 +1622,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
